--- a/data/adac-unfallgeschehen.xlsx
+++ b/data/adac-unfallgeschehen.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="2731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3535" uniqueCount="2638">
   <si>
     <t>Wir machen Mobilität sicher</t>
   </si>
@@ -4881,6 +4881,9 @@
     <t>Beteiligte an Unfällen mit Personenschaden nach Altersgruppen und Geschlecht</t>
   </si>
   <si>
+    <t>Year</t>
+  </si>
+  <si>
     <t>M-all</t>
   </si>
   <si>
@@ -4935,24 +4938,6 @@
     <t>F-over65</t>
   </si>
   <si>
-    <t>588.635</t>
-  </si>
-  <si>
-    <t>111.020</t>
-  </si>
-  <si>
-    <t>53.792</t>
-  </si>
-  <si>
-    <t>21.390</t>
-  </si>
-  <si>
-    <t>62.493</t>
-  </si>
-  <si>
-    <t>8.708</t>
-  </si>
-  <si>
     <t>84.602</t>
   </si>
   <si>
@@ -4989,24 +4974,6 @@
     <t>9.409</t>
   </si>
   <si>
-    <t>537.539</t>
-  </si>
-  <si>
-    <t>161.745</t>
-  </si>
-  <si>
-    <t>74.987</t>
-  </si>
-  <si>
-    <t>23.217</t>
-  </si>
-  <si>
-    <t>83.216</t>
-  </si>
-  <si>
-    <t>21.047</t>
-  </si>
-  <si>
     <t>73.626</t>
   </si>
   <si>
@@ -5043,24 +5010,6 @@
     <t>12.345</t>
   </si>
   <si>
-    <t>467.324</t>
-  </si>
-  <si>
-    <t>183.670</t>
-  </si>
-  <si>
-    <t>33.376</t>
-  </si>
-  <si>
-    <t>14.547</t>
-  </si>
-  <si>
-    <t>50.706</t>
-  </si>
-  <si>
-    <t>20.842</t>
-  </si>
-  <si>
     <t>72.800</t>
   </si>
   <si>
@@ -5097,925 +5046,697 @@
     <t>13.374</t>
   </si>
   <si>
-    <t>517.513</t>
-  </si>
-  <si>
-    <t>211.365</t>
-  </si>
-  <si>
-    <t>39.958</t>
+    <t>59.819</t>
+  </si>
+  <si>
+    <t>25.050</t>
+  </si>
+  <si>
+    <t>140.499</t>
+  </si>
+  <si>
+    <t>57.296</t>
+  </si>
+  <si>
+    <t>87.786</t>
+  </si>
+  <si>
+    <t>37.005</t>
+  </si>
+  <si>
+    <t>63.184</t>
+  </si>
+  <si>
+    <t>24.240</t>
+  </si>
+  <si>
+    <t>48.081</t>
+  </si>
+  <si>
+    <t>15.676</t>
+  </si>
+  <si>
+    <t>28.343</t>
+  </si>
+  <si>
+    <t>14.236</t>
+  </si>
+  <si>
+    <t>49.946</t>
+  </si>
+  <si>
+    <t>24.801</t>
+  </si>
+  <si>
+    <t>109.014</t>
+  </si>
+  <si>
+    <t>51.056</t>
+  </si>
+  <si>
+    <t>99.193</t>
+  </si>
+  <si>
+    <t>46.667</t>
+  </si>
+  <si>
+    <t>63.764</t>
+  </si>
+  <si>
+    <t>27.756</t>
+  </si>
+  <si>
+    <t>50.019</t>
+  </si>
+  <si>
+    <t>19.326</t>
+  </si>
+  <si>
+    <t>16.410</t>
+  </si>
+  <si>
+    <t>43.477</t>
+  </si>
+  <si>
+    <t>22.905</t>
+  </si>
+  <si>
+    <t>85.916</t>
+  </si>
+  <si>
+    <t>42.866</t>
+  </si>
+  <si>
+    <t>94.698</t>
+  </si>
+  <si>
+    <t>47.155</t>
+  </si>
+  <si>
+    <t>65.051</t>
+  </si>
+  <si>
+    <t>30.052</t>
+  </si>
+  <si>
+    <t>44.583</t>
+  </si>
+  <si>
+    <t>18.206</t>
+  </si>
+  <si>
+    <t>38.037</t>
+  </si>
+  <si>
+    <t>17.900</t>
+  </si>
+  <si>
+    <t>40.860</t>
+  </si>
+  <si>
+    <t>22.172</t>
+  </si>
+  <si>
+    <t>78.786</t>
+  </si>
+  <si>
+    <t>39.974</t>
+  </si>
+  <si>
+    <t>91.136</t>
+  </si>
+  <si>
+    <t>45.404</t>
+  </si>
+  <si>
+    <t>64.372</t>
+  </si>
+  <si>
+    <t>29.979</t>
+  </si>
+  <si>
+    <t>42.401</t>
+  </si>
+  <si>
+    <t>17.668</t>
+  </si>
+  <si>
+    <t>38.446</t>
+  </si>
+  <si>
+    <t>18.326</t>
+  </si>
+  <si>
+    <t>38.470</t>
+  </si>
+  <si>
+    <t>21.397</t>
+  </si>
+  <si>
+    <t>74.925</t>
+  </si>
+  <si>
+    <t>38.756</t>
+  </si>
+  <si>
+    <t>90.336</t>
+  </si>
+  <si>
+    <t>45.375</t>
+  </si>
+  <si>
+    <t>66.382</t>
+  </si>
+  <si>
+    <t>31.171</t>
+  </si>
+  <si>
+    <t>42.253</t>
+  </si>
+  <si>
+    <t>17.809</t>
+  </si>
+  <si>
+    <t>40.730</t>
+  </si>
+  <si>
+    <t>19.122</t>
+  </si>
+  <si>
+    <t>35.997</t>
+  </si>
+  <si>
+    <t>20.402</t>
+  </si>
+  <si>
+    <t>71.665</t>
+  </si>
+  <si>
+    <t>37.308</t>
+  </si>
+  <si>
+    <t>85.784</t>
+  </si>
+  <si>
+    <t>43.209</t>
+  </si>
+  <si>
+    <t>66.588</t>
+  </si>
+  <si>
+    <t>31.716</t>
+  </si>
+  <si>
+    <t>41.868</t>
+  </si>
+  <si>
+    <t>18.106</t>
+  </si>
+  <si>
+    <t>41.418</t>
+  </si>
+  <si>
+    <t>19.878</t>
+  </si>
+  <si>
+    <t>35.994</t>
+  </si>
+  <si>
+    <t>21.019</t>
+  </si>
+  <si>
+    <t>70.830</t>
+  </si>
+  <si>
+    <t>37.995</t>
+  </si>
+  <si>
+    <t>84.528</t>
+  </si>
+  <si>
+    <t>44.455</t>
+  </si>
+  <si>
+    <t>70.238</t>
+  </si>
+  <si>
+    <t>34.128</t>
+  </si>
+  <si>
+    <t>42.751</t>
+  </si>
+  <si>
+    <t>19.248</t>
+  </si>
+  <si>
+    <t>44.325</t>
+  </si>
+  <si>
+    <t>21.188</t>
+  </si>
+  <si>
+    <t>33.684</t>
+  </si>
+  <si>
+    <t>19.959</t>
+  </si>
+  <si>
+    <t>66.445</t>
+  </si>
+  <si>
+    <t>36.902</t>
+  </si>
+  <si>
+    <t>76.913</t>
+  </si>
+  <si>
+    <t>41.031</t>
+  </si>
+  <si>
+    <t>68.257</t>
+  </si>
+  <si>
+    <t>34.369</t>
+  </si>
+  <si>
+    <t>41.266</t>
+  </si>
+  <si>
+    <t>18.966</t>
+  </si>
+  <si>
+    <t>43.684</t>
+  </si>
+  <si>
+    <t>21.413</t>
+  </si>
+  <si>
+    <t>32.887</t>
+  </si>
+  <si>
+    <t>19.913</t>
+  </si>
+  <si>
+    <t>63.331</t>
+  </si>
+  <si>
+    <t>35.890</t>
+  </si>
+  <si>
+    <t>70.177</t>
+  </si>
+  <si>
+    <t>37.980</t>
+  </si>
+  <si>
+    <t>68.441</t>
+  </si>
+  <si>
+    <t>34.293</t>
+  </si>
+  <si>
+    <t>18.848</t>
+  </si>
+  <si>
+    <t>43.839</t>
+  </si>
+  <si>
+    <t>21.745</t>
+  </si>
+  <si>
+    <t>30.970</t>
+  </si>
+  <si>
+    <t>18.860</t>
+  </si>
+  <si>
+    <t>59.726</t>
+  </si>
+  <si>
+    <t>33.618</t>
+  </si>
+  <si>
+    <t>64.348</t>
+  </si>
+  <si>
+    <t>33.968</t>
+  </si>
+  <si>
+    <t>66.731</t>
+  </si>
+  <si>
+    <t>32.981</t>
+  </si>
+  <si>
+    <t>39.811</t>
+  </si>
+  <si>
+    <t>17.776</t>
+  </si>
+  <si>
+    <t>19.308</t>
+  </si>
+  <si>
+    <t>19.305</t>
+  </si>
+  <si>
+    <t>62.098</t>
+  </si>
+  <si>
+    <t>35.649</t>
+  </si>
+  <si>
+    <t>64.168</t>
+  </si>
+  <si>
+    <t>34.997</t>
+  </si>
+  <si>
+    <t>72.137</t>
+  </si>
+  <si>
+    <t>36.070</t>
+  </si>
+  <si>
+    <t>44.571</t>
+  </si>
+  <si>
+    <t>20.744</t>
+  </si>
+  <si>
+    <t>44.680</t>
+  </si>
+  <si>
+    <t>22.632</t>
+  </si>
+  <si>
+    <t>31.421</t>
+  </si>
+  <si>
+    <t>19.644</t>
+  </si>
+  <si>
+    <t>61.772</t>
+  </si>
+  <si>
+    <t>36.209</t>
+  </si>
+  <si>
+    <t>60.250</t>
+  </si>
+  <si>
+    <t>33.305</t>
+  </si>
+  <si>
+    <t>71.308</t>
+  </si>
+  <si>
+    <t>36.424</t>
+  </si>
+  <si>
+    <t>44.810</t>
+  </si>
+  <si>
+    <t>20.810</t>
+  </si>
+  <si>
+    <t>44.072</t>
+  </si>
+  <si>
+    <t>22.392</t>
+  </si>
+  <si>
+    <t>30.021</t>
+  </si>
+  <si>
+    <t>18.505</t>
+  </si>
+  <si>
+    <t>60.618</t>
+  </si>
+  <si>
+    <t>36.001</t>
+  </si>
+  <si>
+    <t>56.788</t>
+  </si>
+  <si>
+    <t>31.992</t>
+  </si>
+  <si>
+    <t>70.641</t>
+  </si>
+  <si>
+    <t>36.310</t>
+  </si>
+  <si>
+    <t>44.645</t>
+  </si>
+  <si>
+    <t>21.457</t>
+  </si>
+  <si>
+    <t>43.897</t>
+  </si>
+  <si>
+    <t>22.188</t>
+  </si>
+  <si>
+    <t>Tab. 8.4</t>
+  </si>
+  <si>
+    <t>Fehlverhalten aller Fahrzeugführer bei Unfällen mit Personenschaden</t>
+  </si>
+  <si>
+    <t>Alkohol-</t>
+  </si>
+  <si>
+    <t>falsche Str.-</t>
+  </si>
+  <si>
+    <t>nicht angepaßte</t>
+  </si>
+  <si>
+    <t>Abstand</t>
+  </si>
+  <si>
+    <t>Überholen</t>
+  </si>
+  <si>
+    <t>Vorfahrt,</t>
+  </si>
+  <si>
+    <t>Fehler beim</t>
+  </si>
+  <si>
+    <t>falsches Verhalten</t>
+  </si>
+  <si>
+    <t>einfluß</t>
+  </si>
+  <si>
+    <t>Benutzung</t>
+  </si>
+  <si>
+    <t>Geschwindigkeit</t>
+  </si>
+  <si>
+    <t>Vorrang</t>
+  </si>
+  <si>
+    <t>Abbiegen</t>
+  </si>
+  <si>
+    <t>ggü. Fußgängern</t>
+  </si>
+  <si>
+    <t>506.937</t>
+  </si>
+  <si>
+    <t>34.561</t>
+  </si>
+  <si>
+    <t>36.669</t>
+  </si>
+  <si>
+    <t>101.106</t>
+  </si>
+  <si>
+    <t>54.136</t>
+  </si>
+  <si>
+    <t>22.291</t>
+  </si>
+  <si>
+    <t>68.778</t>
+  </si>
+  <si>
+    <t>36.046</t>
+  </si>
+  <si>
+    <t>22.826</t>
+  </si>
+  <si>
+    <t>493.527</t>
+  </si>
+  <si>
+    <t>26.377</t>
+  </si>
+  <si>
+    <t>35.400</t>
+  </si>
+  <si>
+    <t>93.951</t>
+  </si>
+  <si>
+    <t>56.783</t>
+  </si>
+  <si>
+    <t>21.427</t>
+  </si>
+  <si>
+    <t>70.625</t>
+  </si>
+  <si>
+    <t>37.654</t>
+  </si>
+  <si>
+    <t>19.513</t>
+  </si>
+  <si>
+    <t>475.792</t>
+  </si>
+  <si>
+    <t>25.391</t>
+  </si>
+  <si>
+    <t>33.313</t>
+  </si>
+  <si>
+    <t>88.157</t>
+  </si>
+  <si>
+    <t>56.412</t>
+  </si>
+  <si>
+    <t>20.179</t>
+  </si>
+  <si>
+    <t>69.218</t>
+  </si>
+  <si>
+    <t>36.622</t>
+  </si>
+  <si>
+    <t>18.975</t>
+  </si>
+  <si>
+    <t>466.863</t>
+  </si>
+  <si>
+    <t>23.864</t>
+  </si>
+  <si>
+    <t>32.453</t>
+  </si>
+  <si>
+    <t>88.770</t>
+  </si>
+  <si>
+    <t>55.740</t>
+  </si>
+  <si>
+    <t>18.743</t>
+  </si>
+  <si>
+    <t>66.935</t>
+  </si>
+  <si>
+    <t>36.165</t>
+  </si>
+  <si>
+    <t>18.798</t>
+  </si>
+  <si>
+    <t>451.399</t>
+  </si>
+  <si>
+    <t>23.565</t>
+  </si>
+  <si>
+    <t>30.920</t>
+  </si>
+  <si>
+    <t>80.790</t>
+  </si>
+  <si>
+    <t>54.243</t>
+  </si>
+  <si>
+    <t>18.552</t>
+  </si>
+  <si>
+    <t>65.768</t>
+  </si>
+  <si>
+    <t>35.597</t>
+  </si>
+  <si>
+    <t>18.226</t>
+  </si>
+  <si>
+    <t>443.293</t>
+  </si>
+  <si>
+    <t>22.674</t>
+  </si>
+  <si>
+    <t>32.030</t>
+  </si>
+  <si>
+    <t>78.728</t>
+  </si>
+  <si>
+    <t>50.771</t>
+  </si>
+  <si>
+    <t>17.961</t>
+  </si>
+  <si>
+    <t>63.896</t>
+  </si>
+  <si>
+    <t>35.580</t>
+  </si>
+  <si>
+    <t>17.677</t>
+  </si>
+  <si>
+    <t>417.923</t>
+  </si>
+  <si>
+    <t>21.096</t>
+  </si>
+  <si>
+    <t>28.839</t>
+  </si>
+  <si>
+    <t>72.372</t>
+  </si>
+  <si>
+    <t>47.697</t>
+  </si>
+  <si>
+    <t>16.315</t>
+  </si>
+  <si>
+    <t>61.521</t>
+  </si>
+  <si>
+    <t>33.108</t>
   </si>
   <si>
     <t>17.521</t>
-  </si>
-  <si>
-    <t>49.843</t>
-  </si>
-  <si>
-    <t>20.341</t>
-  </si>
-  <si>
-    <t>59.819</t>
-  </si>
-  <si>
-    <t>25.050</t>
-  </si>
-  <si>
-    <t>140.499</t>
-  </si>
-  <si>
-    <t>57.296</t>
-  </si>
-  <si>
-    <t>87.786</t>
-  </si>
-  <si>
-    <t>37.005</t>
-  </si>
-  <si>
-    <t>63.184</t>
-  </si>
-  <si>
-    <t>24.240</t>
-  </si>
-  <si>
-    <t>48.081</t>
-  </si>
-  <si>
-    <t>15.676</t>
-  </si>
-  <si>
-    <t>28.343</t>
-  </si>
-  <si>
-    <t>14.236</t>
-  </si>
-  <si>
-    <t>493.077</t>
-  </si>
-  <si>
-    <t>227.112</t>
-  </si>
-  <si>
-    <t>36.633</t>
-  </si>
-  <si>
-    <t>16.365</t>
-  </si>
-  <si>
-    <t>50.560</t>
-  </si>
-  <si>
-    <t>24.731</t>
-  </si>
-  <si>
-    <t>49.946</t>
-  </si>
-  <si>
-    <t>24.801</t>
-  </si>
-  <si>
-    <t>109.014</t>
-  </si>
-  <si>
-    <t>51.056</t>
-  </si>
-  <si>
-    <t>99.193</t>
-  </si>
-  <si>
-    <t>46.667</t>
-  </si>
-  <si>
-    <t>63.764</t>
-  </si>
-  <si>
-    <t>27.756</t>
-  </si>
-  <si>
-    <t>50.019</t>
-  </si>
-  <si>
-    <t>19.326</t>
-  </si>
-  <si>
-    <t>16.410</t>
-  </si>
-  <si>
-    <t>446.407</t>
-  </si>
-  <si>
-    <t>215.342</t>
-  </si>
-  <si>
-    <t>33.374</t>
-  </si>
-  <si>
-    <t>14.889</t>
-  </si>
-  <si>
-    <t>41.271</t>
-  </si>
-  <si>
-    <t>21.369</t>
-  </si>
-  <si>
-    <t>43.477</t>
-  </si>
-  <si>
-    <t>22.905</t>
-  </si>
-  <si>
-    <t>85.916</t>
-  </si>
-  <si>
-    <t>42.866</t>
-  </si>
-  <si>
-    <t>94.698</t>
-  </si>
-  <si>
-    <t>47.155</t>
-  </si>
-  <si>
-    <t>65.051</t>
-  </si>
-  <si>
-    <t>30.052</t>
-  </si>
-  <si>
-    <t>44.583</t>
-  </si>
-  <si>
-    <t>18.206</t>
-  </si>
-  <si>
-    <t>38.037</t>
-  </si>
-  <si>
-    <t>17.900</t>
-  </si>
-  <si>
-    <t>426.085</t>
-  </si>
-  <si>
-    <t>208.462</t>
-  </si>
-  <si>
-    <t>32.053</t>
-  </si>
-  <si>
-    <t>14.451</t>
-  </si>
-  <si>
-    <t>38.031</t>
-  </si>
-  <si>
-    <t>20.488</t>
-  </si>
-  <si>
-    <t>40.860</t>
-  </si>
-  <si>
-    <t>22.172</t>
-  </si>
-  <si>
-    <t>78.786</t>
-  </si>
-  <si>
-    <t>39.974</t>
-  </si>
-  <si>
-    <t>91.136</t>
-  </si>
-  <si>
-    <t>45.404</t>
-  </si>
-  <si>
-    <t>64.372</t>
-  </si>
-  <si>
-    <t>29.979</t>
-  </si>
-  <si>
-    <t>42.401</t>
-  </si>
-  <si>
-    <t>17.668</t>
-  </si>
-  <si>
-    <t>38.446</t>
-  </si>
-  <si>
-    <t>18.326</t>
-  </si>
-  <si>
-    <t>419.947</t>
-  </si>
-  <si>
-    <t>208.647</t>
-  </si>
-  <si>
-    <t>31.229</t>
-  </si>
-  <si>
-    <t>14.777</t>
-  </si>
-  <si>
-    <t>35.622</t>
-  </si>
-  <si>
-    <t>20.240</t>
-  </si>
-  <si>
-    <t>38.470</t>
-  </si>
-  <si>
-    <t>21.397</t>
-  </si>
-  <si>
-    <t>74.925</t>
-  </si>
-  <si>
-    <t>38.756</t>
-  </si>
-  <si>
-    <t>90.336</t>
-  </si>
-  <si>
-    <t>45.375</t>
-  </si>
-  <si>
-    <t>66.382</t>
-  </si>
-  <si>
-    <t>31.171</t>
-  </si>
-  <si>
-    <t>42.253</t>
-  </si>
-  <si>
-    <t>17.809</t>
-  </si>
-  <si>
-    <t>40.730</t>
-  </si>
-  <si>
-    <t>19.122</t>
-  </si>
-  <si>
-    <t>406.767</t>
-  </si>
-  <si>
-    <t>204.230</t>
-  </si>
-  <si>
-    <t>28.623</t>
-  </si>
-  <si>
-    <t>14.189</t>
-  </si>
-  <si>
-    <t>34.824</t>
-  </si>
-  <si>
-    <t>19.422</t>
-  </si>
-  <si>
-    <t>35.997</t>
-  </si>
-  <si>
-    <t>20.402</t>
-  </si>
-  <si>
-    <t>71.665</t>
-  </si>
-  <si>
-    <t>37.308</t>
-  </si>
-  <si>
-    <t>85.784</t>
-  </si>
-  <si>
-    <t>43.209</t>
-  </si>
-  <si>
-    <t>66.588</t>
-  </si>
-  <si>
-    <t>31.716</t>
-  </si>
-  <si>
-    <t>41.868</t>
-  </si>
-  <si>
-    <t>18.106</t>
-  </si>
-  <si>
-    <t>41.418</t>
-  </si>
-  <si>
-    <t>19.878</t>
-  </si>
-  <si>
-    <t>412.797</t>
-  </si>
-  <si>
-    <t>212.138</t>
-  </si>
-  <si>
-    <t>28.550</t>
-  </si>
-  <si>
-    <t>13.747</t>
-  </si>
-  <si>
-    <t>35.581</t>
-  </si>
-  <si>
-    <t>20.358</t>
-  </si>
-  <si>
-    <t>35.994</t>
-  </si>
-  <si>
-    <t>21.019</t>
-  </si>
-  <si>
-    <t>70.830</t>
-  </si>
-  <si>
-    <t>37.995</t>
-  </si>
-  <si>
-    <t>84.528</t>
-  </si>
-  <si>
-    <t>44.455</t>
-  </si>
-  <si>
-    <t>70.238</t>
-  </si>
-  <si>
-    <t>34.128</t>
-  </si>
-  <si>
-    <t>42.751</t>
-  </si>
-  <si>
-    <t>19.248</t>
-  </si>
-  <si>
-    <t>44.325</t>
-  </si>
-  <si>
-    <t>21.188</t>
-  </si>
-  <si>
-    <t>389.175</t>
-  </si>
-  <si>
-    <t>205.002</t>
-  </si>
-  <si>
-    <t>13.204</t>
-  </si>
-  <si>
-    <t>32.894</t>
-  </si>
-  <si>
-    <t>19.158</t>
-  </si>
-  <si>
-    <t>33.684</t>
-  </si>
-  <si>
-    <t>19.959</t>
-  </si>
-  <si>
-    <t>66.445</t>
-  </si>
-  <si>
-    <t>36.902</t>
-  </si>
-  <si>
-    <t>76.913</t>
-  </si>
-  <si>
-    <t>41.031</t>
-  </si>
-  <si>
-    <t>68.257</t>
-  </si>
-  <si>
-    <t>34.369</t>
-  </si>
-  <si>
-    <t>41.266</t>
-  </si>
-  <si>
-    <t>18.966</t>
-  </si>
-  <si>
-    <t>43.684</t>
-  </si>
-  <si>
-    <t>21.413</t>
-  </si>
-  <si>
-    <t>375.521</t>
-  </si>
-  <si>
-    <t>199.585</t>
-  </si>
-  <si>
-    <t>24.133</t>
-  </si>
-  <si>
-    <t>12.328</t>
-  </si>
-  <si>
-    <t>31.682</t>
-  </si>
-  <si>
-    <t>18.588</t>
-  </si>
-  <si>
-    <t>32.887</t>
-  </si>
-  <si>
-    <t>19.913</t>
-  </si>
-  <si>
-    <t>63.331</t>
-  </si>
-  <si>
-    <t>35.890</t>
-  </si>
-  <si>
-    <t>70.177</t>
-  </si>
-  <si>
-    <t>37.980</t>
-  </si>
-  <si>
-    <t>68.441</t>
-  </si>
-  <si>
-    <t>34.293</t>
-  </si>
-  <si>
-    <t>18.848</t>
-  </si>
-  <si>
-    <t>43.839</t>
-  </si>
-  <si>
-    <t>21.745</t>
-  </si>
-  <si>
-    <t>351.127</t>
-  </si>
-  <si>
-    <t>184.638</t>
-  </si>
-  <si>
-    <t>21.170</t>
-  </si>
-  <si>
-    <t>11.027</t>
-  </si>
-  <si>
-    <t>28.055</t>
-  </si>
-  <si>
-    <t>17.100</t>
-  </si>
-  <si>
-    <t>30.970</t>
-  </si>
-  <si>
-    <t>18.860</t>
-  </si>
-  <si>
-    <t>59.726</t>
-  </si>
-  <si>
-    <t>33.618</t>
-  </si>
-  <si>
-    <t>64.348</t>
-  </si>
-  <si>
-    <t>33.968</t>
-  </si>
-  <si>
-    <t>66.731</t>
-  </si>
-  <si>
-    <t>32.981</t>
-  </si>
-  <si>
-    <t>39.811</t>
-  </si>
-  <si>
-    <t>17.776</t>
-  </si>
-  <si>
-    <t>19.308</t>
-  </si>
-  <si>
-    <t>371.272</t>
-  </si>
-  <si>
-    <t>198.138</t>
-  </si>
-  <si>
-    <t>23.037</t>
-  </si>
-  <si>
-    <t>11.982</t>
-  </si>
-  <si>
-    <t>27.970</t>
-  </si>
-  <si>
-    <t>16.759</t>
-  </si>
-  <si>
-    <t>19.305</t>
-  </si>
-  <si>
-    <t>62.098</t>
-  </si>
-  <si>
-    <t>35.649</t>
-  </si>
-  <si>
-    <t>64.168</t>
-  </si>
-  <si>
-    <t>34.997</t>
-  </si>
-  <si>
-    <t>72.137</t>
-  </si>
-  <si>
-    <t>36.070</t>
-  </si>
-  <si>
-    <t>44.571</t>
-  </si>
-  <si>
-    <t>20.744</t>
-  </si>
-  <si>
-    <t>44.680</t>
-  </si>
-  <si>
-    <t>22.632</t>
-  </si>
-  <si>
-    <t>360.986</t>
-  </si>
-  <si>
-    <t>196.113</t>
-  </si>
-  <si>
-    <t>21.363</t>
-  </si>
-  <si>
-    <t>11.179</t>
-  </si>
-  <si>
-    <t>25.990</t>
-  </si>
-  <si>
-    <t>16.150</t>
-  </si>
-  <si>
-    <t>31.421</t>
-  </si>
-  <si>
-    <t>19.644</t>
-  </si>
-  <si>
-    <t>61.772</t>
-  </si>
-  <si>
-    <t>36.209</t>
-  </si>
-  <si>
-    <t>60.250</t>
-  </si>
-  <si>
-    <t>33.305</t>
-  </si>
-  <si>
-    <t>71.308</t>
-  </si>
-  <si>
-    <t>36.424</t>
-  </si>
-  <si>
-    <t>44.810</t>
-  </si>
-  <si>
-    <t>20.810</t>
-  </si>
-  <si>
-    <t>44.072</t>
-  </si>
-  <si>
-    <t>22.392</t>
-  </si>
-  <si>
-    <t>350.143</t>
-  </si>
-  <si>
-    <t>191.818</t>
-  </si>
-  <si>
-    <t>20.322</t>
-  </si>
-  <si>
-    <t>10.655</t>
-  </si>
-  <si>
-    <t>23.211</t>
-  </si>
-  <si>
-    <t>14.710</t>
-  </si>
-  <si>
-    <t>30.021</t>
-  </si>
-  <si>
-    <t>18.505</t>
-  </si>
-  <si>
-    <t>60.618</t>
-  </si>
-  <si>
-    <t>36.001</t>
-  </si>
-  <si>
-    <t>56.788</t>
-  </si>
-  <si>
-    <t>31.992</t>
-  </si>
-  <si>
-    <t>70.641</t>
-  </si>
-  <si>
-    <t>36.310</t>
-  </si>
-  <si>
-    <t>44.645</t>
-  </si>
-  <si>
-    <t>21.457</t>
-  </si>
-  <si>
-    <t>43.897</t>
-  </si>
-  <si>
-    <t>22.188</t>
-  </si>
-  <si>
-    <t>Tab. 8.4</t>
-  </si>
-  <si>
-    <t>Fehlverhalten aller Fahrzeugführer bei Unfällen mit Personenschaden</t>
-  </si>
-  <si>
-    <t>Alkohol-</t>
-  </si>
-  <si>
-    <t>falsche Str.-</t>
-  </si>
-  <si>
-    <t>nicht angepaßte</t>
-  </si>
-  <si>
-    <t>Abstand</t>
-  </si>
-  <si>
-    <t>Überholen</t>
-  </si>
-  <si>
-    <t>Vorfahrt,</t>
-  </si>
-  <si>
-    <t>Fehler beim</t>
-  </si>
-  <si>
-    <t>falsches Verhalten</t>
-  </si>
-  <si>
-    <t>einfluß</t>
-  </si>
-  <si>
-    <t>Benutzung</t>
-  </si>
-  <si>
-    <t>Geschwindigkeit</t>
-  </si>
-  <si>
-    <t>Vorrang</t>
-  </si>
-  <si>
-    <t>Abbiegen</t>
-  </si>
-  <si>
-    <t>ggü. Fußgängern</t>
-  </si>
-  <si>
-    <t>506.937</t>
-  </si>
-  <si>
-    <t>34.561</t>
-  </si>
-  <si>
-    <t>36.669</t>
-  </si>
-  <si>
-    <t>101.106</t>
-  </si>
-  <si>
-    <t>54.136</t>
-  </si>
-  <si>
-    <t>22.291</t>
-  </si>
-  <si>
-    <t>68.778</t>
-  </si>
-  <si>
-    <t>36.046</t>
-  </si>
-  <si>
-    <t>22.826</t>
-  </si>
-  <si>
-    <t>493.527</t>
-  </si>
-  <si>
-    <t>26.377</t>
-  </si>
-  <si>
-    <t>35.400</t>
-  </si>
-  <si>
-    <t>93.951</t>
-  </si>
-  <si>
-    <t>56.783</t>
-  </si>
-  <si>
-    <t>21.427</t>
-  </si>
-  <si>
-    <t>70.625</t>
-  </si>
-  <si>
-    <t>37.654</t>
-  </si>
-  <si>
-    <t>19.513</t>
-  </si>
-  <si>
-    <t>475.792</t>
-  </si>
-  <si>
-    <t>25.391</t>
-  </si>
-  <si>
-    <t>33.313</t>
-  </si>
-  <si>
-    <t>88.157</t>
-  </si>
-  <si>
-    <t>56.412</t>
-  </si>
-  <si>
-    <t>20.179</t>
-  </si>
-  <si>
-    <t>69.218</t>
-  </si>
-  <si>
-    <t>36.622</t>
-  </si>
-  <si>
-    <t>18.975</t>
-  </si>
-  <si>
-    <t>466.863</t>
-  </si>
-  <si>
-    <t>23.864</t>
-  </si>
-  <si>
-    <t>32.453</t>
-  </si>
-  <si>
-    <t>88.770</t>
-  </si>
-  <si>
-    <t>55.740</t>
-  </si>
-  <si>
-    <t>18.743</t>
-  </si>
-  <si>
-    <t>66.935</t>
-  </si>
-  <si>
-    <t>36.165</t>
-  </si>
-  <si>
-    <t>18.798</t>
-  </si>
-  <si>
-    <t>451.399</t>
-  </si>
-  <si>
-    <t>23.565</t>
-  </si>
-  <si>
-    <t>30.920</t>
-  </si>
-  <si>
-    <t>80.790</t>
-  </si>
-  <si>
-    <t>54.243</t>
-  </si>
-  <si>
-    <t>18.552</t>
-  </si>
-  <si>
-    <t>65.768</t>
-  </si>
-  <si>
-    <t>35.597</t>
-  </si>
-  <si>
-    <t>18.226</t>
-  </si>
-  <si>
-    <t>443.293</t>
-  </si>
-  <si>
-    <t>22.674</t>
-  </si>
-  <si>
-    <t>32.030</t>
-  </si>
-  <si>
-    <t>78.728</t>
-  </si>
-  <si>
-    <t>50.771</t>
-  </si>
-  <si>
-    <t>17.961</t>
-  </si>
-  <si>
-    <t>63.896</t>
-  </si>
-  <si>
-    <t>35.580</t>
-  </si>
-  <si>
-    <t>17.677</t>
-  </si>
-  <si>
-    <t>417.923</t>
-  </si>
-  <si>
-    <t>21.096</t>
-  </si>
-  <si>
-    <t>28.839</t>
-  </si>
-  <si>
-    <t>72.372</t>
-  </si>
-  <si>
-    <t>47.697</t>
-  </si>
-  <si>
-    <t>16.315</t>
-  </si>
-  <si>
-    <t>61.521</t>
-  </si>
-  <si>
-    <t>33.108</t>
   </si>
   <si>
     <t>413.942</t>
@@ -9667,7 +9388,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9701,1004 +9422,1006 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>1617</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>1412</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2" t="n">
+        <v>588635</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>111020</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>53792</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>21390</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>62493</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>8708</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>1637</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>1638</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>1641</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>1643</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>1644</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>1645</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>1646</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="S3" s="4" t="s">
         <v>1647</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>1648</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>1649</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>1650</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>1651</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2" t="n">
+        <v>537539</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>161745</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>74987</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>23217</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>83216</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>21047</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>1653</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>1655</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>1656</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>1657</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>1658</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>1659</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>1660</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>1661</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>1662</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>1663</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>1664</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>1665</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>1666</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>1668</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>1669</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2" t="n">
+        <v>467324</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>183670</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>33376</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>14547</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>30706</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>20842</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>1671</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1674</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>1675</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>1676</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1677</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>1678</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>1679</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>1680</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>1681</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>1682</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>1683</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>1685</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>1686</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>1687</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1691</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>1692</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>1693</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>1694</v>
+      <c r="B6" s="2" t="n">
+        <v>517513</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>211365</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>39958</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>17521</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>49843</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>20341</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>1695</v>
+        <v>1672</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1696</v>
+        <v>1673</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>1697</v>
+        <v>1674</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>1698</v>
+        <v>1675</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>1699</v>
+        <v>1676</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>1700</v>
+        <v>1677</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>1701</v>
+        <v>1678</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>1702</v>
+        <v>1679</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>1703</v>
+        <v>1680</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>1704</v>
+        <v>1681</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>1706</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1708</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>1709</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>1710</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>1711</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>1712</v>
+      <c r="B7" s="2" t="n">
+        <v>493077</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>227112</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>36633</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>16365</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>50560</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>24731</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1713</v>
+        <v>1684</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>1714</v>
+        <v>1685</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>1715</v>
+        <v>1686</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1716</v>
+        <v>1687</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>1717</v>
+        <v>1688</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>1718</v>
+        <v>1689</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>1719</v>
+        <v>1690</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>1720</v>
+        <v>1691</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>1721</v>
+        <v>1692</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1722</v>
+        <v>1693</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>340</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1723</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>1727</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>1728</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>1729</v>
+      <c r="B8" s="2" t="n">
+        <v>446407</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>215342</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>33374</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>14889</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>41271</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>21369</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>1730</v>
+        <v>1695</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>1731</v>
+        <v>1696</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>1732</v>
+        <v>1697</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>1733</v>
+        <v>1698</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>1734</v>
+        <v>1699</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>1735</v>
+        <v>1700</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>1736</v>
+        <v>1701</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>1737</v>
+        <v>1702</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>1738</v>
+        <v>1703</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1739</v>
+        <v>1704</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1740</v>
+        <v>1705</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1741</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1743</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1744</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>1745</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>1746</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>1747</v>
+      <c r="B9" s="2" t="n">
+        <v>426085</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>208462</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>32053</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>14451</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>38031</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>20488</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1748</v>
+        <v>1707</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>1749</v>
+        <v>1708</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>1750</v>
+        <v>1709</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>1751</v>
+        <v>1710</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>1752</v>
+        <v>1711</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>1753</v>
+        <v>1712</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>1754</v>
+        <v>1713</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>1755</v>
+        <v>1714</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>1756</v>
+        <v>1715</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>1757</v>
+        <v>1716</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>1758</v>
+        <v>1717</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>1759</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>1762</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>1763</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>1764</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>1765</v>
+      <c r="B10" s="2" t="n">
+        <v>419947</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>208647</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>31229</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>14777</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>35622</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>20240</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1766</v>
+        <v>1719</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>1767</v>
+        <v>1720</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1768</v>
+        <v>1721</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>1769</v>
+        <v>1722</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>1770</v>
+        <v>1723</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>1771</v>
+        <v>1724</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>1772</v>
+        <v>1725</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>1773</v>
+        <v>1726</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>1774</v>
+        <v>1727</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>1775</v>
+        <v>1728</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>1776</v>
+        <v>1729</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>1777</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1779</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1780</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>1781</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>1782</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>1783</v>
+      <c r="B11" s="2" t="n">
+        <v>406767</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>204230</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>28623</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>14189</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>34824</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>19422</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>1784</v>
+        <v>1731</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1785</v>
+        <v>1732</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1786</v>
+        <v>1733</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1787</v>
+        <v>1734</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1788</v>
+        <v>1735</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>1789</v>
+        <v>1736</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>1790</v>
+        <v>1737</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>1791</v>
+        <v>1738</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>1792</v>
+        <v>1739</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>1793</v>
+        <v>1740</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>1794</v>
+        <v>1741</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>1795</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>1796</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1798</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>1799</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>1800</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>1801</v>
+      <c r="B12" s="2" t="n">
+        <v>412797</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>212138</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>28550</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>13747</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>35381</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>20358</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>1802</v>
+        <v>1743</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1803</v>
+        <v>1744</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1804</v>
+        <v>1745</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>1805</v>
+        <v>1746</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>1806</v>
+        <v>1747</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>1807</v>
+        <v>1748</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>1808</v>
+        <v>1749</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>1809</v>
+        <v>1750</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>1810</v>
+        <v>1751</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>1811</v>
+        <v>1752</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>1812</v>
+        <v>1753</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>1813</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>1814</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1815</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>1816</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>1817</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>1818</v>
+      <c r="B13" s="2" t="n">
+        <v>389175</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>205002</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>26032</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>13204</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>32894</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>19158</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1819</v>
+        <v>1755</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>1820</v>
+        <v>1756</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1821</v>
+        <v>1757</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>1822</v>
+        <v>1758</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>1823</v>
+        <v>1759</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>1824</v>
+        <v>1760</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>1825</v>
+        <v>1761</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>1826</v>
+        <v>1762</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>1827</v>
+        <v>1763</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>1828</v>
+        <v>1764</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>1829</v>
+        <v>1765</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>1830</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>1831</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1833</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>1834</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>1836</v>
+      <c r="B14" s="2" t="n">
+        <v>375521</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>199585</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>24133</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>12328</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>31682</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>18588</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1837</v>
+        <v>1767</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>1838</v>
+        <v>1768</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1839</v>
+        <v>1769</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>1840</v>
+        <v>1770</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>1841</v>
+        <v>1771</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>1842</v>
+        <v>1772</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>1843</v>
+        <v>1773</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>1844</v>
+        <v>1774</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>1824</v>
+        <v>1760</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>1845</v>
+        <v>1775</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>1846</v>
+        <v>1776</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>1847</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1850</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>1853</v>
+      <c r="B15" s="2" t="n">
+        <v>351127</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>184638</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>21170</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>11027</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>28055</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>17100</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1854</v>
+        <v>1778</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>1855</v>
+        <v>1779</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1856</v>
+        <v>1780</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>1857</v>
+        <v>1781</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>1858</v>
+        <v>1782</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>1859</v>
+        <v>1783</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>1860</v>
+        <v>1784</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>1861</v>
+        <v>1785</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>1862</v>
+        <v>1786</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>1863</v>
+        <v>1787</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>124</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>1864</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1866</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>1868</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>1870</v>
+      <c r="B16" s="2" t="n">
+        <v>371272</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>198138</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>23037</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>11982</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>27970</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>16759</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>233</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>1871</v>
+        <v>1789</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>1872</v>
+        <v>1790</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>1873</v>
+        <v>1791</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>1874</v>
+        <v>1792</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>1875</v>
+        <v>1793</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>1876</v>
+        <v>1794</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>1877</v>
+        <v>1795</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>1878</v>
+        <v>1796</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>1879</v>
+        <v>1797</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>1880</v>
+        <v>1798</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>1881</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>1882</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1883</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>1884</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>1885</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>1886</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>1887</v>
+      <c r="B17" s="2" t="n">
+        <v>360986</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>196113</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>21363</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>11179</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>25990</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>16150</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>1888</v>
+        <v>1800</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>1889</v>
+        <v>1801</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>1890</v>
+        <v>1802</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>1891</v>
+        <v>1803</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>1892</v>
+        <v>1804</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>1893</v>
+        <v>1805</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>1894</v>
+        <v>1806</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>1895</v>
+        <v>1807</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>1896</v>
+        <v>1808</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>1897</v>
+        <v>1809</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>1898</v>
+        <v>1810</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>1899</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>1900</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1901</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1902</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>1903</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>1905</v>
+      <c r="B18" s="2" t="n">
+        <v>350143</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>191818</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>20322</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>10655</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>23211</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>14710</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>1906</v>
+        <v>1812</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>1907</v>
+        <v>1813</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>1908</v>
+        <v>1814</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>1909</v>
+        <v>1815</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>1910</v>
+        <v>1816</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>1911</v>
+        <v>1817</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>1912</v>
+        <v>1818</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>1913</v>
+        <v>1819</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>1914</v>
+        <v>1820</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>1915</v>
+        <v>1821</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>1916</v>
+        <v>1822</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>1917</v>
+        <v>1823</v>
       </c>
     </row>
   </sheetData>
@@ -10751,7 +10474,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1918</v>
+        <v>1824</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -10771,7 +10494,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1919</v>
+        <v>1825</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -10795,49 +10518,49 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1920</v>
+        <v>1826</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1921</v>
+        <v>1827</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>1922</v>
+        <v>1828</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>1923</v>
+        <v>1829</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>1924</v>
+        <v>1830</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="2" t="s">
-        <v>1925</v>
+        <v>1831</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>1926</v>
+        <v>1832</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="2" t="s">
-        <v>1927</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>1928</v>
+        <v>1834</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1929</v>
+        <v>1835</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>1930</v>
+        <v>1836</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -10845,14 +10568,14 @@
       <c r="K5" s="1"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>1931</v>
+        <v>1837</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>1932</v>
+        <v>1838</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="2" t="s">
-        <v>1933</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10860,37 +10583,37 @@
         <v>1075</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1934</v>
+        <v>1840</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1935</v>
+        <v>1841</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1936</v>
+        <v>1842</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>1937</v>
+        <v>1843</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1938</v>
+        <v>1844</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>1939</v>
+        <v>1845</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="2" t="s">
-        <v>1940</v>
+        <v>1846</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>1941</v>
+        <v>1847</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>1942</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10898,37 +10621,37 @@
         <v>1115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1943</v>
+        <v>1849</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1944</v>
+        <v>1850</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1945</v>
+        <v>1851</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>1946</v>
+        <v>1852</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1947</v>
+        <v>1853</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>1948</v>
+        <v>1854</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="2" t="s">
-        <v>1949</v>
+        <v>1855</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>1950</v>
+        <v>1856</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>1951</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10936,37 +10659,37 @@
         <v>1125</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1952</v>
+        <v>1858</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1953</v>
+        <v>1859</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1954</v>
+        <v>1860</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>1955</v>
+        <v>1861</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1956</v>
+        <v>1862</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>1957</v>
+        <v>1863</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="2" t="s">
-        <v>1958</v>
+        <v>1864</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>1959</v>
+        <v>1865</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>1960</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10974,37 +10697,37 @@
         <v>1135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1961</v>
+        <v>1867</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1962</v>
+        <v>1868</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1963</v>
+        <v>1869</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>1964</v>
+        <v>1870</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1965</v>
+        <v>1871</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>1966</v>
+        <v>1872</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="2" t="s">
-        <v>1967</v>
+        <v>1873</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
-        <v>1968</v>
+        <v>1874</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>1969</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11012,37 +10735,37 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1970</v>
+        <v>1876</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1971</v>
+        <v>1877</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1972</v>
+        <v>1878</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>1973</v>
+        <v>1879</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1974</v>
+        <v>1880</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>1975</v>
+        <v>1881</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="2" t="s">
-        <v>1976</v>
+        <v>1882</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2" t="s">
-        <v>1977</v>
+        <v>1883</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>1978</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11050,37 +10773,37 @@
         <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1979</v>
+        <v>1885</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1980</v>
+        <v>1886</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1981</v>
+        <v>1887</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>1982</v>
+        <v>1888</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>1983</v>
+        <v>1889</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>1984</v>
+        <v>1890</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="2" t="s">
-        <v>1985</v>
+        <v>1891</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2" t="s">
-        <v>1986</v>
+        <v>1892</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>1987</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11088,37 +10811,37 @@
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1988</v>
+        <v>1894</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1989</v>
+        <v>1895</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1990</v>
+        <v>1896</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>1991</v>
+        <v>1897</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>1992</v>
+        <v>1898</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>1993</v>
+        <v>1899</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="2" t="s">
-        <v>1994</v>
+        <v>1900</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2" t="s">
-        <v>1995</v>
+        <v>1901</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>1692</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11126,37 +10849,37 @@
         <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1996</v>
+        <v>1903</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1997</v>
+        <v>1904</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1998</v>
+        <v>1905</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>1999</v>
+        <v>1906</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>2000</v>
+        <v>1907</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>2001</v>
+        <v>1908</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="2" t="s">
-        <v>2002</v>
+        <v>1909</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2" t="s">
-        <v>2003</v>
+        <v>1910</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>2004</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11164,37 +10887,37 @@
         <v>127</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2005</v>
+        <v>1912</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>2006</v>
+        <v>1913</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>2007</v>
+        <v>1914</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>2008</v>
+        <v>1915</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>2009</v>
+        <v>1916</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>2010</v>
+        <v>1917</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="2" t="s">
-        <v>2011</v>
+        <v>1918</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2" t="s">
-        <v>2012</v>
+        <v>1919</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>2013</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11202,37 +10925,37 @@
         <v>154</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2014</v>
+        <v>1921</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>2015</v>
+        <v>1922</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>2016</v>
+        <v>1923</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>2017</v>
+        <v>1924</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>2018</v>
+        <v>1925</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>2019</v>
+        <v>1926</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="2" t="s">
-        <v>2020</v>
+        <v>1927</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2" t="s">
-        <v>2021</v>
+        <v>1928</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>2022</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11240,37 +10963,37 @@
         <v>181</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2023</v>
+        <v>1930</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>2024</v>
+        <v>1931</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>2025</v>
+        <v>1932</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>2026</v>
+        <v>1933</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>2027</v>
+        <v>1934</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>2028</v>
+        <v>1935</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="2" t="s">
-        <v>2029</v>
+        <v>1936</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2" t="s">
-        <v>2030</v>
+        <v>1937</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>2031</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11278,37 +11001,37 @@
         <v>208</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2032</v>
+        <v>1939</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>2033</v>
+        <v>1940</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2034</v>
+        <v>1941</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>2035</v>
+        <v>1942</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>2036</v>
+        <v>1943</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>2037</v>
+        <v>1944</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="2" t="s">
-        <v>2038</v>
+        <v>1945</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2" t="s">
-        <v>2039</v>
+        <v>1946</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>2040</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11316,37 +11039,37 @@
         <v>235</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2041</v>
+        <v>1948</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>2042</v>
+        <v>1949</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>2043</v>
+        <v>1950</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>2044</v>
+        <v>1951</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>2045</v>
+        <v>1952</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>2046</v>
+        <v>1953</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="2" t="s">
-        <v>2047</v>
+        <v>1954</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2" t="s">
-        <v>2048</v>
+        <v>1955</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>2049</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11354,37 +11077,37 @@
         <v>262</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2050</v>
+        <v>1957</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>2051</v>
+        <v>1958</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>2052</v>
+        <v>1959</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>2053</v>
+        <v>1960</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>2054</v>
+        <v>1961</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>2055</v>
+        <v>1962</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="2" t="s">
-        <v>2056</v>
+        <v>1963</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2" t="s">
-        <v>2057</v>
+        <v>1964</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>2058</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11392,37 +11115,37 @@
         <v>289</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2059</v>
+        <v>1966</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>2060</v>
+        <v>1967</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>2061</v>
+        <v>1968</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>2062</v>
+        <v>1969</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>2063</v>
+        <v>1970</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>2064</v>
+        <v>1971</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="2" t="s">
-        <v>2065</v>
+        <v>1972</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
-        <v>2066</v>
+        <v>1973</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>2067</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11430,44 +11153,44 @@
         <v>316</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2068</v>
+        <v>1975</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>2069</v>
+        <v>1976</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>2070</v>
+        <v>1977</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>2071</v>
+        <v>1978</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>2072</v>
+        <v>1979</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>2073</v>
+        <v>1980</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="2" t="s">
-        <v>2074</v>
+        <v>1981</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
-        <v>2075</v>
+        <v>1982</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>2076</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>2077</v>
+        <v>1984</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
@@ -11478,7 +11201,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>2078</v>
+        <v>1985</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -11489,7 +11212,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>2079</v>
+        <v>1986</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
@@ -11500,7 +11223,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>1923</v>
+        <v>1829</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -11512,7 +11235,7 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>2080</v>
+        <v>1987</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -11531,7 +11254,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>2081</v>
+        <v>1988</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -11542,7 +11265,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>2082</v>
+        <v>1989</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -11553,7 +11276,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>2083</v>
+        <v>1990</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -11573,7 +11296,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>2084</v>
+        <v>1991</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -11593,7 +11316,7 @@
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>2085</v>
+        <v>1992</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -11614,7 +11337,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
-        <v>2086</v>
+        <v>1993</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -11627,7 +11350,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>2071</v>
+        <v>1978</v>
       </c>
       <c r="P29" s="2"/>
     </row>
@@ -11635,7 +11358,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>2087</v>
+        <v>1994</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -11655,7 +11378,7 @@
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>2088</v>
+        <v>1995</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -11687,7 +11410,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>2072</v>
+        <v>1979</v>
       </c>
       <c r="P32" s="2"/>
     </row>
@@ -11695,7 +11418,7 @@
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>2089</v>
+        <v>1996</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -11716,7 +11439,7 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
-        <v>2090</v>
+        <v>1997</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -11735,7 +11458,7 @@
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>2091</v>
+        <v>1998</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -11755,7 +11478,7 @@
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>2092</v>
+        <v>1999</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -11787,7 +11510,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>2073</v>
+        <v>1980</v>
       </c>
       <c r="P37" s="2"/>
     </row>
@@ -11795,7 +11518,7 @@
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>2093</v>
+        <v>2000</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -11875,7 +11598,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>2094</v>
+        <v>2001</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -11897,7 +11620,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>2095</v>
+        <v>2002</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -11967,7 +11690,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1918</v>
+        <v>1824</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -11987,7 +11710,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2096</v>
+        <v>2003</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -12011,49 +11734,49 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1920</v>
+        <v>1826</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1921</v>
+        <v>1827</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>1922</v>
+        <v>1828</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>1923</v>
+        <v>1829</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1924</v>
+        <v>1830</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="2" t="s">
-        <v>1925</v>
+        <v>1831</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>1926</v>
+        <v>1832</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="2" t="s">
-        <v>1927</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>1928</v>
+        <v>1834</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1929</v>
+        <v>1835</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>1930</v>
+        <v>1836</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -12061,14 +11784,14 @@
       <c r="K5" s="1"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>1931</v>
+        <v>1837</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>1932</v>
+        <v>1838</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>1933</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12076,37 +11799,37 @@
         <v>1075</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2097</v>
+        <v>2004</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2098</v>
+        <v>2005</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>2099</v>
+        <v>2006</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>2100</v>
+        <v>2007</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>2101</v>
+        <v>2008</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>2102</v>
+        <v>2009</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="2" t="s">
-        <v>2103</v>
+        <v>2010</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>2104</v>
+        <v>2011</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>2105</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12114,37 +11837,37 @@
         <v>1115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2106</v>
+        <v>2013</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>2107</v>
+        <v>2014</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>2108</v>
+        <v>2015</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>2109</v>
+        <v>2016</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>2110</v>
+        <v>2017</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>2111</v>
+        <v>2018</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="2" t="s">
-        <v>2112</v>
+        <v>2019</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>2113</v>
+        <v>2020</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>2114</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12152,37 +11875,37 @@
         <v>1125</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2115</v>
+        <v>2022</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>2116</v>
+        <v>2023</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>2117</v>
+        <v>2024</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>2118</v>
+        <v>2025</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>2119</v>
+        <v>2026</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>2120</v>
+        <v>2027</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="2" t="s">
-        <v>2121</v>
+        <v>2028</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>2122</v>
+        <v>2029</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>2123</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12190,37 +11913,37 @@
         <v>1135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2124</v>
+        <v>2031</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2125</v>
+        <v>2032</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>2126</v>
+        <v>2033</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>2127</v>
+        <v>2034</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>2128</v>
+        <v>2035</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>2129</v>
+        <v>2036</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="2" t="s">
-        <v>2130</v>
+        <v>2037</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
-        <v>2131</v>
+        <v>2038</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>2132</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12228,37 +11951,37 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2133</v>
+        <v>2040</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>2134</v>
+        <v>2041</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>2135</v>
+        <v>2042</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>2136</v>
+        <v>2043</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>2137</v>
+        <v>2044</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>2138</v>
+        <v>2045</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="2" t="s">
-        <v>2139</v>
+        <v>2046</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2" t="s">
-        <v>2140</v>
+        <v>2047</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>2141</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12266,37 +11989,37 @@
         <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2142</v>
+        <v>2049</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>2143</v>
+        <v>2050</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>2144</v>
+        <v>2051</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>2145</v>
+        <v>2052</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>2146</v>
+        <v>2053</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>2147</v>
+        <v>2054</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="2" t="s">
-        <v>2148</v>
+        <v>2055</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2" t="s">
-        <v>2149</v>
+        <v>2056</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>2150</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12304,34 +12027,34 @@
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2151</v>
+        <v>2058</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2152</v>
+        <v>2059</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>2153</v>
+        <v>2060</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>2154</v>
+        <v>2061</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>2155</v>
+        <v>2062</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>2156</v>
+        <v>2063</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="2" t="s">
-        <v>2157</v>
+        <v>2064</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2" t="s">
-        <v>2158</v>
+        <v>2065</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>1113</v>
@@ -12342,37 +12065,37 @@
         <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2159</v>
+        <v>2066</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>2160</v>
+        <v>2067</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>2161</v>
+        <v>2068</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>2162</v>
+        <v>2069</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>2163</v>
+        <v>2070</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>2164</v>
+        <v>2071</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="2" t="s">
-        <v>2165</v>
+        <v>2072</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2" t="s">
-        <v>2166</v>
+        <v>2073</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>2167</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12380,37 +12103,37 @@
         <v>127</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2168</v>
+        <v>2075</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>2169</v>
+        <v>2076</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>2170</v>
+        <v>2077</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>2171</v>
+        <v>2078</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>2172</v>
+        <v>2079</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>2173</v>
+        <v>2080</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="2" t="s">
-        <v>2174</v>
+        <v>2081</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2" t="s">
-        <v>2175</v>
+        <v>2082</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>2176</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12418,37 +12141,37 @@
         <v>154</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2177</v>
+        <v>2084</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>2178</v>
+        <v>2085</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>2179</v>
+        <v>2086</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>2180</v>
+        <v>2087</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>2181</v>
+        <v>2088</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>2182</v>
+        <v>2089</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>2183</v>
+        <v>2090</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2" t="s">
-        <v>2184</v>
+        <v>2091</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>2185</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12456,37 +12179,37 @@
         <v>181</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2186</v>
+        <v>2093</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>2187</v>
+        <v>2094</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>2188</v>
+        <v>2095</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>2189</v>
+        <v>2096</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>2190</v>
+        <v>2097</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>2191</v>
+        <v>2098</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>2192</v>
+        <v>2099</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2" t="s">
-        <v>2193</v>
+        <v>2100</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>2194</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12494,37 +12217,37 @@
         <v>208</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2195</v>
+        <v>2102</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>2196</v>
+        <v>2103</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>2197</v>
+        <v>2104</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>2198</v>
+        <v>2105</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>2199</v>
+        <v>2106</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>2200</v>
+        <v>2107</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>2201</v>
+        <v>2108</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2" t="s">
-        <v>2202</v>
+        <v>2109</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>2203</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12532,37 +12255,37 @@
         <v>235</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2204</v>
+        <v>2111</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>2205</v>
+        <v>2112</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>2206</v>
+        <v>2113</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>2207</v>
+        <v>2114</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>2208</v>
+        <v>2115</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>2209</v>
+        <v>2116</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>2210</v>
+        <v>2117</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2" t="s">
-        <v>2211</v>
+        <v>2118</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>2212</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12570,37 +12293,37 @@
         <v>262</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2213</v>
+        <v>2120</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>2214</v>
+        <v>2121</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>2215</v>
+        <v>2122</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>2216</v>
+        <v>2123</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>2217</v>
+        <v>2124</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>2218</v>
+        <v>2125</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>2219</v>
+        <v>2126</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2" t="s">
         <v>116</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>2220</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12608,37 +12331,37 @@
         <v>289</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2221</v>
+        <v>2128</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>2222</v>
+        <v>2129</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>2223</v>
+        <v>2130</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>2224</v>
+        <v>2131</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>2225</v>
+        <v>2132</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>2226</v>
+        <v>2133</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>2227</v>
+        <v>2134</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
-        <v>2228</v>
+        <v>2135</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>2229</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12646,44 +12369,44 @@
         <v>316</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2230</v>
+        <v>2137</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>2231</v>
+        <v>2138</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>2232</v>
+        <v>2139</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>2233</v>
+        <v>2140</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>2234</v>
+        <v>2141</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>2235</v>
+        <v>2142</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>2236</v>
+        <v>2143</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
-        <v>2237</v>
+        <v>2144</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>2238</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>2239</v>
+        <v>2146</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -12694,7 +12417,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>2078</v>
+        <v>1985</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -12705,7 +12428,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>2240</v>
+        <v>2147</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -12716,7 +12439,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>1923</v>
+        <v>1829</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -12728,7 +12451,7 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>2241</v>
+        <v>2148</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -12738,7 +12461,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>2082</v>
+        <v>1989</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -12749,7 +12472,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>2242</v>
+        <v>2149</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -12769,7 +12492,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>2243</v>
+        <v>2150</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -12789,7 +12512,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>2244</v>
+        <v>2151</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -12821,7 +12544,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>2234</v>
+        <v>2141</v>
       </c>
       <c r="P28" s="2"/>
     </row>
@@ -12830,7 +12553,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
-        <v>2245</v>
+        <v>2152</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -12849,7 +12572,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>2246</v>
+        <v>2153</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -12869,7 +12592,7 @@
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>2247</v>
+        <v>2154</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -12901,7 +12624,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>2233</v>
+        <v>2140</v>
       </c>
       <c r="P32" s="2"/>
     </row>
@@ -12909,10 +12632,10 @@
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>2248</v>
+        <v>2155</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>2249</v>
+        <v>2156</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -12931,7 +12654,7 @@
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>2250</v>
+        <v>2157</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -12963,7 +12686,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>2231</v>
+        <v>2138</v>
       </c>
       <c r="P35" s="2"/>
     </row>
@@ -12971,7 +12694,7 @@
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>2093</v>
+        <v>2000</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -13051,7 +12774,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>2094</v>
+        <v>2001</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -13073,7 +12796,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>2095</v>
+        <v>2002</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -13144,7 +12867,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2251</v>
+        <v>2158</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -13165,7 +12888,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2252</v>
+        <v>2159</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -13187,7 +12910,7 @@
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>2253</v>
+        <v>2160</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
@@ -13196,12 +12919,12 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>2254</v>
+        <v>2161</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>2255</v>
+        <v>2162</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -13212,88 +12935,88 @@
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>2256</v>
+        <v>2163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2257</v>
+        <v>2164</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2258</v>
+        <v>2165</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2259</v>
+        <v>2166</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>2260</v>
+        <v>2167</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>2261</v>
+        <v>2168</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>2262</v>
+        <v>2169</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>2263</v>
+        <v>2170</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>2264</v>
+        <v>2171</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>2265</v>
+        <v>2172</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>2266</v>
+        <v>2173</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>2267</v>
+        <v>2174</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>2268</v>
+        <v>2175</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>2269</v>
+        <v>2176</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>2270</v>
+        <v>2177</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>2271</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>2272</v>
+        <v>2179</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>2273</v>
+        <v>2180</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>2274</v>
+        <v>2181</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>2275</v>
+        <v>2182</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>2276</v>
+        <v>2183</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>2277</v>
+        <v>2184</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>2278</v>
+        <v>2185</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>2279</v>
+        <v>2186</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>2280</v>
+        <v>2187</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
@@ -13302,10 +13025,10 @@
         <v>1049</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2281</v>
+        <v>2188</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>2282</v>
+        <v>2189</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1414</v>
@@ -13314,28 +13037,28 @@
         <v>1414</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2283</v>
+        <v>2190</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>2284</v>
+        <v>2191</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>2285</v>
+        <v>2192</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>1414</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>2286</v>
+        <v>2193</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>2287</v>
+        <v>2194</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>2288</v>
+        <v>2195</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>2289</v>
+        <v>2196</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>1414</v>
@@ -13344,7 +13067,7 @@
         <v>1414</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>2290</v>
+        <v>2197</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>1414</v>
@@ -13355,10 +13078,10 @@
         <v>1058</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2291</v>
+        <v>2198</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>2292</v>
+        <v>2199</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>1414</v>
@@ -13367,28 +13090,28 @@
         <v>1414</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>2293</v>
+        <v>2200</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>2294</v>
+        <v>2201</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>2295</v>
+        <v>2202</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>1414</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>2296</v>
+        <v>2203</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>2297</v>
+        <v>2204</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>2298</v>
+        <v>2205</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>2299</v>
+        <v>2206</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>1414</v>
@@ -13397,7 +13120,7 @@
         <v>1414</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>2300</v>
+        <v>2207</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>1414</v>
@@ -13408,10 +13131,10 @@
         <v>1448</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2301</v>
+        <v>2208</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2302</v>
+        <v>2209</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>1414</v>
@@ -13420,28 +13143,28 @@
         <v>1414</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>2303</v>
+        <v>2210</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>2304</v>
+        <v>2211</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>2305</v>
+        <v>2212</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>1414</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>2306</v>
+        <v>2213</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>2307</v>
+        <v>2214</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>2308</v>
+        <v>2215</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>2309</v>
+        <v>2216</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>1414</v>
@@ -13450,7 +13173,7 @@
         <v>1414</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>2310</v>
+        <v>2217</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>1414</v>
@@ -13461,10 +13184,10 @@
         <v>1451</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2311</v>
+        <v>2218</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>2312</v>
+        <v>2219</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1414</v>
@@ -13473,28 +13196,28 @@
         <v>1414</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>2313</v>
+        <v>2220</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>2314</v>
+        <v>2221</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>2315</v>
+        <v>2222</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>1414</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>2316</v>
+        <v>2223</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>2317</v>
+        <v>2224</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>2318</v>
+        <v>2225</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>2319</v>
+        <v>2226</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>1414</v>
@@ -13503,7 +13226,7 @@
         <v>1414</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>2320</v>
+        <v>2227</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>1414</v>
@@ -13514,10 +13237,10 @@
         <v>1454</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2321</v>
+        <v>2228</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>2322</v>
+        <v>2229</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1414</v>
@@ -13526,28 +13249,28 @@
         <v>1414</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>2323</v>
+        <v>2230</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>2324</v>
+        <v>2231</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>2325</v>
+        <v>2232</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>1414</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>2326</v>
+        <v>2233</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>2327</v>
+        <v>2234</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>2328</v>
+        <v>2235</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>2329</v>
+        <v>2236</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>1414</v>
@@ -13556,7 +13279,7 @@
         <v>1414</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>2330</v>
+        <v>2237</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>1414</v>
@@ -13567,10 +13290,10 @@
         <v>1457</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2331</v>
+        <v>2238</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2332</v>
+        <v>2239</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1414</v>
@@ -13579,28 +13302,28 @@
         <v>1414</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>2333</v>
+        <v>2240</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>2334</v>
+        <v>2241</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>2335</v>
+        <v>2242</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>1414</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>2336</v>
+        <v>2243</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>2337</v>
+        <v>2244</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>2338</v>
+        <v>2245</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>2339</v>
+        <v>2246</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>1414</v>
@@ -13609,7 +13332,7 @@
         <v>1414</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>2340</v>
+        <v>2247</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>1414</v>
@@ -13620,10 +13343,10 @@
         <v>1067</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2341</v>
+        <v>2248</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>2342</v>
+        <v>2249</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1414</v>
@@ -13632,28 +13355,28 @@
         <v>1414</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>2343</v>
+        <v>2250</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>2344</v>
+        <v>2251</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>2345</v>
+        <v>2252</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>1414</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>2346</v>
+        <v>2253</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>2347</v>
+        <v>2254</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>2348</v>
+        <v>2255</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>2349</v>
+        <v>2256</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>1414</v>
@@ -13662,7 +13385,7 @@
         <v>1414</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>2350</v>
+        <v>2257</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>1414</v>
@@ -13673,52 +13396,52 @@
         <v>1379</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2351</v>
+        <v>2258</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>2352</v>
+        <v>2259</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>2353</v>
+        <v>2260</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2354</v>
+        <v>2261</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>2355</v>
+        <v>2262</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>2356</v>
+        <v>2263</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>2357</v>
+        <v>2264</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>2358</v>
+        <v>2265</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>2359</v>
+        <v>2266</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>2360</v>
+        <v>2267</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>2361</v>
+        <v>2268</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>2362</v>
+        <v>2269</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>2363</v>
+        <v>2270</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>2364</v>
+        <v>2271</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>2365</v>
+        <v>2272</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>2366</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13726,52 +13449,52 @@
         <v>1382</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2367</v>
+        <v>2274</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>2368</v>
+        <v>2275</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>2369</v>
+        <v>2276</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>2370</v>
+        <v>2277</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>2371</v>
+        <v>2278</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>2372</v>
+        <v>2279</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>2373</v>
+        <v>2280</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>2374</v>
+        <v>2281</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>2375</v>
+        <v>2282</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>2376</v>
+        <v>2283</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>2377</v>
+        <v>2284</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>2378</v>
+        <v>2285</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>2379</v>
+        <v>2286</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>2380</v>
+        <v>2287</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>2381</v>
+        <v>2288</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>2382</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13779,52 +13502,52 @@
         <v>1386</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2383</v>
+        <v>2290</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>2384</v>
+        <v>2291</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>2385</v>
+        <v>2292</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>2386</v>
+        <v>2293</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>2387</v>
+        <v>2294</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>2388</v>
+        <v>2295</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>2389</v>
+        <v>2296</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>2390</v>
+        <v>2297</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>2391</v>
+        <v>2298</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>2392</v>
+        <v>2299</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>2393</v>
+        <v>2300</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>2394</v>
+        <v>2301</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>2395</v>
+        <v>2302</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>2396</v>
+        <v>2303</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>2397</v>
+        <v>2304</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>2398</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13832,52 +13555,52 @@
         <v>1389</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2399</v>
+        <v>2306</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>2400</v>
+        <v>2307</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2401</v>
+        <v>2308</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2402</v>
+        <v>2309</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>2403</v>
+        <v>2310</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>2404</v>
+        <v>2311</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>2405</v>
+        <v>2312</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>2406</v>
+        <v>2313</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>2407</v>
+        <v>2314</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>2408</v>
+        <v>2315</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>2409</v>
+        <v>2316</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>2410</v>
+        <v>2317</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>2411</v>
+        <v>2318</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>2412</v>
+        <v>2319</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>2413</v>
+        <v>2320</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>2414</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13885,52 +13608,52 @@
         <v>1075</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2415</v>
+        <v>2322</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>2416</v>
+        <v>2323</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>2417</v>
+        <v>2324</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>2418</v>
+        <v>2325</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>2419</v>
+        <v>2326</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>2420</v>
+        <v>2327</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>2421</v>
+        <v>2328</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>2422</v>
+        <v>2329</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>2423</v>
+        <v>2330</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>2424</v>
+        <v>2331</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>2425</v>
+        <v>2332</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>2426</v>
+        <v>2333</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>2427</v>
+        <v>2334</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>2428</v>
+        <v>2335</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>2429</v>
+        <v>2336</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>2430</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13938,52 +13661,52 @@
         <v>1085</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2431</v>
+        <v>2338</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>2432</v>
+        <v>2339</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>2433</v>
+        <v>2340</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>2434</v>
+        <v>2341</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>2435</v>
+        <v>2342</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>2436</v>
+        <v>2343</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>2437</v>
+        <v>2344</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>2438</v>
+        <v>2345</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>2439</v>
+        <v>2346</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>2440</v>
+        <v>2347</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>2441</v>
+        <v>2348</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>2442</v>
+        <v>2349</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>2443</v>
+        <v>2350</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>2444</v>
+        <v>2351</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>2445</v>
+        <v>2352</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>2446</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13991,52 +13714,52 @@
         <v>1095</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2447</v>
+        <v>2354</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>2448</v>
+        <v>2355</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>2449</v>
+        <v>2356</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2450</v>
+        <v>2357</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>2451</v>
+        <v>2358</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>2452</v>
+        <v>2359</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>2453</v>
+        <v>2360</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>2454</v>
+        <v>2361</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>2455</v>
+        <v>2362</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>2456</v>
+        <v>2363</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>2457</v>
+        <v>2364</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>2458</v>
+        <v>2365</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>2459</v>
+        <v>2366</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>2460</v>
+        <v>2367</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>2461</v>
+        <v>2368</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>2462</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14044,52 +13767,52 @@
         <v>1105</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2463</v>
+        <v>2370</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>2464</v>
+        <v>2371</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>2465</v>
+        <v>2372</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2466</v>
+        <v>2373</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>2467</v>
+        <v>2374</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>2468</v>
+        <v>2375</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>2469</v>
+        <v>2376</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>2470</v>
+        <v>2377</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>2471</v>
+        <v>2378</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>2472</v>
+        <v>2379</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>2473</v>
+        <v>2380</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>2474</v>
+        <v>2381</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>2475</v>
+        <v>2382</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>2476</v>
+        <v>2383</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>2477</v>
+        <v>2384</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>2478</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14097,52 +13820,52 @@
         <v>1115</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2479</v>
+        <v>2386</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>2480</v>
+        <v>2387</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2481</v>
+        <v>2388</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>2482</v>
+        <v>2389</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1871</v>
+        <v>1789</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>2483</v>
+        <v>2390</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>2484</v>
+        <v>2391</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>2485</v>
+        <v>2392</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>2486</v>
+        <v>2393</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>2487</v>
+        <v>2394</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>2488</v>
+        <v>2395</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>2489</v>
+        <v>2396</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>2490</v>
+        <v>2397</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>2491</v>
+        <v>2398</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>2492</v>
+        <v>2399</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>2493</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14150,52 +13873,52 @@
         <v>1125</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2494</v>
+        <v>2401</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>2495</v>
+        <v>2402</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>2496</v>
+        <v>2403</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2497</v>
+        <v>2404</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>2498</v>
+        <v>2405</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>2499</v>
+        <v>2406</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>2500</v>
+        <v>2407</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>2501</v>
+        <v>2408</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>2502</v>
+        <v>2409</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>2503</v>
+        <v>2410</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>2504</v>
+        <v>2411</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>2505</v>
+        <v>2412</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>2506</v>
+        <v>2413</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>2507</v>
+        <v>2414</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>2508</v>
+        <v>2415</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>2509</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14203,52 +13926,52 @@
         <v>1135</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2510</v>
+        <v>2417</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>2511</v>
+        <v>2418</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>2512</v>
+        <v>2419</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>2513</v>
+        <v>2420</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>2514</v>
+        <v>2421</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>2515</v>
+        <v>2422</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>2516</v>
+        <v>2423</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>2517</v>
+        <v>2424</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>2518</v>
+        <v>2425</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>2519</v>
+        <v>2426</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>2520</v>
+        <v>2427</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>2521</v>
+        <v>2428</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>2522</v>
+        <v>2429</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>2523</v>
+        <v>2430</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>2524</v>
+        <v>2431</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>2525</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14256,52 +13979,52 @@
         <v>17</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2526</v>
+        <v>2433</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>2527</v>
+        <v>2434</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>2528</v>
+        <v>2435</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2529</v>
+        <v>2436</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>2530</v>
+        <v>2437</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>2531</v>
+        <v>2438</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>2532</v>
+        <v>2439</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>2533</v>
+        <v>2440</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>2534</v>
+        <v>2441</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>2535</v>
+        <v>2442</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>2536</v>
+        <v>2443</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>2537</v>
+        <v>2444</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>2538</v>
+        <v>2445</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>2539</v>
+        <v>2446</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>2540</v>
+        <v>2447</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>2541</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14309,52 +14032,52 @@
         <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2542</v>
+        <v>2449</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>2543</v>
+        <v>2450</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>2544</v>
+        <v>2451</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>2545</v>
+        <v>2452</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>2546</v>
+        <v>2453</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>2547</v>
+        <v>2454</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>2548</v>
+        <v>2455</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>2549</v>
+        <v>2456</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>2550</v>
+        <v>2457</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>2551</v>
+        <v>2458</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>2552</v>
+        <v>2459</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>2553</v>
+        <v>2460</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>2554</v>
+        <v>2461</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>2555</v>
+        <v>2462</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>2556</v>
+        <v>2463</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>2557</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14362,52 +14085,52 @@
         <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2558</v>
+        <v>2465</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>2559</v>
+        <v>2466</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>2560</v>
+        <v>2467</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>2561</v>
+        <v>2468</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>2562</v>
+        <v>2469</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>2563</v>
+        <v>2470</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>2564</v>
+        <v>2471</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>2565</v>
+        <v>2472</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>2566</v>
+        <v>2473</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>2567</v>
+        <v>2474</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>2568</v>
+        <v>2475</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>2569</v>
+        <v>2476</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>2570</v>
+        <v>2477</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>2571</v>
+        <v>2478</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>2572</v>
+        <v>2479</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>2573</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14415,52 +14138,52 @@
         <v>100</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2574</v>
+        <v>2481</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>2575</v>
+        <v>2482</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>2576</v>
+        <v>2483</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2577</v>
+        <v>2484</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>2578</v>
+        <v>2485</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>2579</v>
+        <v>2486</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>2580</v>
+        <v>2487</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>2581</v>
+        <v>2488</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>2582</v>
+        <v>2489</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>2583</v>
+        <v>2490</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>2584</v>
+        <v>2491</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>2585</v>
+        <v>2492</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>2586</v>
+        <v>2493</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>2587</v>
+        <v>2494</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>2588</v>
+        <v>2495</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>2589</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14468,52 +14191,52 @@
         <v>127</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2590</v>
+        <v>2497</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>2591</v>
+        <v>2498</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>2592</v>
+        <v>2499</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>2593</v>
+        <v>2500</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>2594</v>
+        <v>2501</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>2595</v>
+        <v>2502</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>2596</v>
+        <v>2503</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>2597</v>
+        <v>2504</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>2598</v>
+        <v>2505</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>2599</v>
+        <v>2506</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>2600</v>
+        <v>2507</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>2601</v>
+        <v>2508</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>2602</v>
+        <v>2509</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>2603</v>
+        <v>2510</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>2604</v>
+        <v>2511</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>2605</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14521,52 +14244,52 @@
         <v>154</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2606</v>
+        <v>2513</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2607</v>
+        <v>2514</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>2608</v>
+        <v>2515</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>2609</v>
+        <v>2516</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>2610</v>
+        <v>2517</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>2611</v>
+        <v>2518</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>2612</v>
+        <v>2519</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>2613</v>
+        <v>2520</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>2614</v>
+        <v>2521</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>2615</v>
+        <v>2522</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>2616</v>
+        <v>2523</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>2617</v>
+        <v>2524</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>2618</v>
+        <v>2525</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>2619</v>
+        <v>2526</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>2620</v>
+        <v>2527</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>2621</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14574,52 +14297,52 @@
         <v>181</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2622</v>
+        <v>2529</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2623</v>
+        <v>2530</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>2624</v>
+        <v>2531</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>2625</v>
+        <v>2532</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>2626</v>
+        <v>2533</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>2627</v>
+        <v>2534</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>2628</v>
+        <v>2535</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>2629</v>
+        <v>2536</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>2630</v>
+        <v>2537</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>2631</v>
+        <v>2538</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>2632</v>
+        <v>2539</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>2633</v>
+        <v>2540</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>2634</v>
+        <v>2541</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>2635</v>
+        <v>2542</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>2636</v>
+        <v>2543</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>2637</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14627,52 +14350,52 @@
         <v>208</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2638</v>
+        <v>2545</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>2639</v>
+        <v>2546</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>2640</v>
+        <v>2547</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>2641</v>
+        <v>2548</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>2642</v>
+        <v>2549</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>2643</v>
+        <v>2550</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>2644</v>
+        <v>2551</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>2645</v>
+        <v>2552</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>2646</v>
+        <v>2553</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>2647</v>
+        <v>2554</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>2648</v>
+        <v>2555</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>295</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>2649</v>
+        <v>2556</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>2650</v>
+        <v>2557</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>2651</v>
+        <v>2558</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>2652</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14680,52 +14403,52 @@
         <v>235</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2653</v>
+        <v>2560</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>2654</v>
+        <v>2561</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>2655</v>
+        <v>2562</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>2656</v>
+        <v>2563</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>2657</v>
+        <v>2564</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>2658</v>
+        <v>2565</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>2659</v>
+        <v>2566</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>2660</v>
+        <v>2567</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>2661</v>
+        <v>2568</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>2662</v>
+        <v>2569</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>2663</v>
+        <v>2570</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>2664</v>
+        <v>2571</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>2665</v>
+        <v>2572</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>2666</v>
+        <v>2573</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>2667</v>
+        <v>2574</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>2668</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14733,52 +14456,52 @@
         <v>262</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2669</v>
+        <v>2576</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2670</v>
+        <v>2577</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>2671</v>
+        <v>2578</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>2672</v>
+        <v>2579</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>2673</v>
+        <v>2580</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>2674</v>
+        <v>2581</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>2675</v>
+        <v>2582</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>2676</v>
+        <v>2583</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>2677</v>
+        <v>2584</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>2678</v>
+        <v>2585</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>2679</v>
+        <v>2586</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>2680</v>
+        <v>2587</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>2681</v>
+        <v>2588</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>2682</v>
+        <v>2589</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>2683</v>
+        <v>2590</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>2684</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14786,52 +14509,52 @@
         <v>289</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2685</v>
+        <v>2592</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2686</v>
+        <v>2593</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>2687</v>
+        <v>2594</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>2688</v>
+        <v>2595</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>2689</v>
+        <v>2596</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>2690</v>
+        <v>2597</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>2691</v>
+        <v>2598</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>2692</v>
+        <v>2599</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>2693</v>
+        <v>2600</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>2694</v>
+        <v>2601</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>2695</v>
+        <v>2602</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>2696</v>
+        <v>2603</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>2697</v>
+        <v>2604</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>2698</v>
+        <v>2605</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>2699</v>
+        <v>2606</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>2700</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14839,105 +14562,105 @@
         <v>316</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2701</v>
+        <v>2608</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2702</v>
+        <v>2609</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>2703</v>
+        <v>2610</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>2704</v>
+        <v>2611</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>2705</v>
+        <v>2612</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>2706</v>
+        <v>2613</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>2707</v>
+        <v>2614</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>2708</v>
+        <v>2615</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>2709</v>
+        <v>2616</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>2710</v>
+        <v>2617</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>2711</v>
+        <v>2618</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>2712</v>
+        <v>2619</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>2713</v>
+        <v>2620</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>2714</v>
+        <v>2621</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>2715</v>
+        <v>2622</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>2716</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>2717</v>
+        <v>2624</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2718</v>
+        <v>2625</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2719</v>
+        <v>2626</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>2720</v>
+        <v>2627</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>2721</v>
+        <v>2628</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>2722</v>
+        <v>2629</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>2723</v>
+        <v>2630</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>2724</v>
+        <v>2631</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>2725</v>
+        <v>2632</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>2726</v>
+        <v>2633</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>2725</v>
+        <v>2632</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>2727</v>
+        <v>2634</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>2728</v>
+        <v>2635</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>2724</v>
+        <v>2631</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>2725</v>
+        <v>2632</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>2729</v>
+        <v>2636</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>2730</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/data/adac-unfallgeschehen.xlsx
+++ b/data/adac-unfallgeschehen.xlsx
@@ -4896,10 +4896,10 @@
     <t>F-less18</t>
   </si>
   <si>
-    <t>M-18-21</t>
-  </si>
-  <si>
-    <t>F-18-21</t>
+    <t>M-from18to21</t>
+  </si>
+  <si>
+    <t>F-from18to21</t>
   </si>
   <si>
     <t>M-21-25</t>
@@ -9388,7 +9388,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
